--- a/fichiers/conf/modele_registrepresence_civile.xlsx
+++ b/fichiers/conf/modele_registrepresence_civile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\analytiscout\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E03C4-EEEC-436F-81B4-229ED678C39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BEDA63-FE66-40F5-92C9-F3E3998DC1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="525" windowWidth="25665" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{8F248F90-B83D-4D26-B898-E0FFBFE01865}"/>
+    <workbookView xWindow="3435" yWindow="1020" windowWidth="24630" windowHeight="13710" tabRatio="747" activeTab="1" xr2:uid="{8F248F90-B83D-4D26-B898-E0FFBFE01865}"/>
   </bookViews>
   <sheets>
     <sheet name="Aide" sheetId="10" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Général" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Activités mois'!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activités par unité'!$A$2:$U$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Activités par unité et type'!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Bénévolat encadrement (CEC)'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Activités mois'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activités par unité'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Activités par unité et type'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Bénévolat encadrement (CEC)'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>&lt;/jt:forEach&gt;&lt;/jt:agg&gt;</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>&lt;jt:agg items="${activites_personnes}" aggs="Sum(dureereel);Sum(dureereeljeune);Sum(dureeforfaitaire);Sum(dureeforfaitairejeune)" valuesVar="results" groupBy="unite;mois"&gt;&lt;jt:forEach items="${results}" var="result" orderBy="getPropertyValue(1)"&gt;${result.object.unite.groupe.code}</t>
+  </si>
+  <si>
+    <t>Branche</t>
+  </si>
+  <si>
+    <t>${activite.unite.branche}</t>
+  </si>
+  <si>
+    <t>${result.object.unite.branche}</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +444,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,7 +467,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -472,6 +504,36 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -482,7 +544,197 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -936,12 +1188,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R3 F2">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -970,165 +1222,192 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U2" xr:uid="{59F8BA04-5672-401D-B931-828BC8AB731F}"/>
+  <autoFilter ref="A2:V2" xr:uid="{59F8BA04-5672-401D-B931-828BC8AB731F}"/>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L2049">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="M3:M2049">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="26" priority="2" stopIfTrue="1" operator="beginsWith" text="C">
+      <formula>LEFT(C3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="3" stopIfTrue="1" operator="beginsWith" text="F">
+      <formula>LEFT(C3,LEN("F"))="F"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="4" stopIfTrue="1" operator="beginsWith" text="PC">
+      <formula>LEFT(C3,LEN("PC"))="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="23" priority="5" stopIfTrue="1" operator="beginsWith" text="SG">
+      <formula>LEFT(C3,LEN("SG"))="SG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="22" priority="6" stopIfTrue="1" operator="beginsWith" text="LJ">
+      <formula>LEFT(C3,LEN("LJ"))="LJ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="21" priority="1" stopIfTrue="1" operator="beginsWith" text="R">
+      <formula>LEFT(C3,LEN("R"))="R"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1141,90 +1420,118 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="86.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="14" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="86.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{7B1C69B3-1BD0-46CA-B4D0-848488C3E47B}"/>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <autoFilter ref="A1:J1" xr:uid="{7B1C69B3-1BD0-46CA-B4D0-848488C3E47B}"/>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="R">
+      <formula>LEFT(C2,LEN("R"))="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="C">
+      <formula>LEFT(C2,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="17" priority="3" stopIfTrue="1" operator="beginsWith" text="F">
+      <formula>LEFT(C2,LEN("F"))="F"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="4" stopIfTrue="1" operator="beginsWith" text="PC">
+      <formula>LEFT(C2,LEN("PC"))="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="5" stopIfTrue="1" operator="beginsWith" text="SG">
+      <formula>LEFT(C2,LEN("SG"))="SG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="LJ">
+      <formula>LEFT(C2,LEN("LJ"))="LJ"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,32 +1544,33 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
@@ -1270,62 +1578,90 @@
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{262A407E-25D5-4174-9F66-93AF4D7F5522}"/>
+  <autoFilter ref="A2:E2" xr:uid="{262A407E-25D5-4174-9F66-93AF4D7F5522}"/>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="P3">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="12" priority="1" stopIfTrue="1" operator="beginsWith" text="R">
+      <formula>LEFT(C3,LEN("R"))="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="11" priority="2" stopIfTrue="1" operator="beginsWith" text="C">
+      <formula>LEFT(C3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="3" stopIfTrue="1" operator="beginsWith" text="F">
+      <formula>LEFT(C3,LEN("F"))="F"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="4" stopIfTrue="1" operator="beginsWith" text="PC">
+      <formula>LEFT(C3,LEN("PC"))="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="5" stopIfTrue="1" operator="beginsWith" text="SG">
+      <formula>LEFT(C3,LEN("SG"))="SG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="6" stopIfTrue="1" operator="beginsWith" text="LJ">
+      <formula>LEFT(C3,LEN("LJ"))="LJ"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,34 +1673,33 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="17" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
@@ -1372,62 +1707,90 @@
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{122F8AB8-D872-4D55-9714-F54A24AD6CE3}"/>
+  <autoFilter ref="A2:E2" xr:uid="{122F8AB8-D872-4D55-9714-F54A24AD6CE3}"/>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="R">
+      <formula>LEFT(C3,LEN("R"))="R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C65536">
+    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="C">
+      <formula>LEFT(C3,LEN("C"))="C"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="F">
+      <formula>LEFT(C3,LEN("F"))="F"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="PC">
+      <formula>LEFT(C3,LEN("PC"))="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="beginsWith" text="SG">
+      <formula>LEFT(C3,LEN("SG"))="SG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="beginsWith" text="LJ">
+      <formula>LEFT(C3,LEN("LJ"))="LJ"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fichiers/conf/modele_registrepresence_civile.xlsx
+++ b/fichiers/conf/modele_registrepresence_civile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\analytiscout\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BEDA63-FE66-40F5-92C9-F3E3998DC1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9FCEAE-B471-4039-A3A5-BE4FB7D1DA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1020" windowWidth="24630" windowHeight="13710" tabRatio="747" activeTab="1" xr2:uid="{8F248F90-B83D-4D26-B898-E0FFBFE01865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="1" xr2:uid="{8F248F90-B83D-4D26-B898-E0FFBFE01865}"/>
   </bookViews>
   <sheets>
     <sheet name="Aide" sheetId="10" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>${activite.dureeforfaitaire}</t>
   </si>
   <si>
-    <t>$[H2+I2]</t>
-  </si>
-  <si>
     <t>Durée (f)</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>${result.object.unite.branche}</t>
+  </si>
+  <si>
+    <t>$[H3+I3]</t>
   </si>
 </sst>
 </file>
@@ -1121,36 +1121,36 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1163,24 +1163,24 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -1249,23 +1249,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1280,16 +1280,16 @@
         <v>10</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1336,16 +1336,16 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>7</v>
@@ -1360,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>23</v>
@@ -1440,19 +1440,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -1464,27 +1464,27 @@
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>26</v>
@@ -1562,23 +1562,23 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1587,30 +1587,30 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1619,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>0</v>
@@ -1691,23 +1691,23 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1716,30 +1716,30 @@
         <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>3</v>
@@ -1748,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>0</v>
@@ -1812,18 +1812,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
